--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf7</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +543,40 @@
         <v>33.422096</v>
       </c>
       <c r="I2">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J2">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>29.18811060739556</v>
+        <v>64.0720148151111</v>
       </c>
       <c r="R2">
-        <v>262.69299546656</v>
+        <v>576.648133336</v>
       </c>
       <c r="S2">
-        <v>0.5907636323978518</v>
+        <v>0.7006719174173573</v>
       </c>
       <c r="T2">
-        <v>0.5907636323978518</v>
+        <v>0.7006719174173572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +605,10 @@
         <v>33.422096</v>
       </c>
       <c r="I3">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J3">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
         <v>6.348508567368889</v>
@@ -632,10 +635,10 @@
         <v>57.13657710632</v>
       </c>
       <c r="S3">
-        <v>0.1284930029221367</v>
+        <v>0.0694253440207063</v>
       </c>
       <c r="T3">
-        <v>0.1284930029221367</v>
+        <v>0.0694253440207063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +667,10 @@
         <v>33.422096</v>
       </c>
       <c r="I4">
-        <v>0.9684602815214559</v>
+        <v>0.9461861633339901</v>
       </c>
       <c r="J4">
-        <v>0.9684602815214559</v>
+        <v>0.94618616333399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>12.31251077452267</v>
+        <v>16.10221624499911</v>
       </c>
       <c r="R4">
-        <v>110.812596970704</v>
+        <v>144.919946204992</v>
       </c>
       <c r="S4">
-        <v>0.2492036462014673</v>
+        <v>0.1760889018959265</v>
       </c>
       <c r="T4">
-        <v>0.2492036462014673</v>
+        <v>0.1760889018959265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H5">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I5">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J5">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>0.9505653551755556</v>
+        <v>3.0701740575</v>
       </c>
       <c r="R5">
-        <v>8.55508819658</v>
+        <v>27.6315665175</v>
       </c>
       <c r="S5">
-        <v>0.01923932143496742</v>
+        <v>0.03357448255499849</v>
       </c>
       <c r="T5">
-        <v>0.01923932143496742</v>
+        <v>0.03357448255499849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H6">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I6">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J6">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +809,22 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
-        <v>0.2067510426538889</v>
+        <v>0.3042049850249999</v>
       </c>
       <c r="R6">
-        <v>1.860759383885</v>
+        <v>2.737844865225</v>
       </c>
       <c r="S6">
-        <v>0.004184614708473354</v>
+        <v>0.003326692484393594</v>
       </c>
       <c r="T6">
-        <v>0.004184614708473353</v>
+        <v>0.003326692484393595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3628176666666666</v>
+        <v>0.5338349999999999</v>
       </c>
       <c r="H7">
-        <v>1.088453</v>
+        <v>1.601505</v>
       </c>
       <c r="I7">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="J7">
-        <v>0.03153971847854405</v>
+        <v>0.04533892403128163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>0.4009799172996666</v>
+        <v>0.77157877314</v>
       </c>
       <c r="R7">
-        <v>3.608819255697</v>
+        <v>6.944208958260001</v>
       </c>
       <c r="S7">
-        <v>0.008115782335103273</v>
+        <v>0.008437748991889548</v>
       </c>
       <c r="T7">
-        <v>0.008115782335103272</v>
+        <v>0.008437748991889548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H8">
+        <v>0.299359</v>
+      </c>
+      <c r="I8">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J8">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.751166666666666</v>
+      </c>
+      <c r="N8">
+        <v>17.2535</v>
+      </c>
+      <c r="O8">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="P8">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="Q8">
+        <v>0.5738878340555554</v>
+      </c>
+      <c r="R8">
+        <v>5.1649905065</v>
+      </c>
+      <c r="S8">
+        <v>0.006275861469793595</v>
+      </c>
+      <c r="T8">
+        <v>0.006275861469793595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H9">
+        <v>0.299359</v>
+      </c>
+      <c r="I9">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J9">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.709545</v>
+      </c>
+      <c r="O9">
+        <v>0.07337387367415998</v>
+      </c>
+      <c r="P9">
+        <v>0.07337387367416</v>
+      </c>
+      <c r="Q9">
+        <v>0.05686307573944444</v>
+      </c>
+      <c r="R9">
+        <v>0.511767681655</v>
+      </c>
+      <c r="S9">
+        <v>0.0006218371690600916</v>
+      </c>
+      <c r="T9">
+        <v>0.0006218371690600917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H10">
+        <v>0.299359</v>
+      </c>
+      <c r="I10">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="J10">
+        <v>0.008474912634728231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.445350666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.336052</v>
+      </c>
+      <c r="O10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="P10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="Q10">
+        <v>0.1442262434075556</v>
+      </c>
+      <c r="R10">
+        <v>1.298036190668</v>
+      </c>
+      <c r="S10">
+        <v>0.001577213995874545</v>
+      </c>
+      <c r="T10">
+        <v>0.001577213995874545</v>
       </c>
     </row>
   </sheetData>
